--- a/BookDepotSheet.xlsx
+++ b/BookDepotSheet.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulazizozden/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdulazizozden/IdeaProjects/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43AA7B7-2B2D-E34A-808A-F85744E32BBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24FF0C4-BC04-F54A-B73A-5E57879AE241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{40F91806-E731-C443-A6D4-C88313EB4AB1}"/>
   </bookViews>
@@ -17,15 +17,309 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>My Little Pony: Fluttershy's Bunny Haven (Passport to Reading Level 2)</t>
+  </si>
+  <si>
+    <t>God Will Use This for Good: Surviving the Mess of Lfe</t>
+  </si>
+  <si>
+    <t>Jesus Always: Embracing Joy in His Presence</t>
+  </si>
+  <si>
+    <t>Jesus Calling: Enjoying Peace in His Presence</t>
+  </si>
+  <si>
+    <t>The Berenstain Bears Go Christmas Caroling (Berenstain Bears/Living Lights: A Faith Story)</t>
+  </si>
+  <si>
+    <t>Brave Love: Making Space for You to Be You</t>
+  </si>
+  <si>
+    <t>Channing o'Banning and the Turquoise Trail</t>
+  </si>
+  <si>
+    <t>Cross My Heart (A Legacy of Faith Novel)</t>
+  </si>
+  <si>
+    <t>God's Words of Life for Mothers</t>
+  </si>
+  <si>
+    <t>The Grumble-Free Year: Twelve Months, Eleven Family Members, and One Impossible Goal</t>
+  </si>
+  <si>
+    <t>Hands Free Life: Nine Habits for Overcoming Distraction, Living Better, and Loving More</t>
+  </si>
+  <si>
+    <t>Healing Into Life and Death</t>
+  </si>
+  <si>
+    <t>The Innocents</t>
+  </si>
+  <si>
+    <t>Inspiring Words: 30 Verses from the Bible You Can Color</t>
+  </si>
+  <si>
+    <t>Introverted Mom: Your Guide to More Calm, Less Guilt, and Quiet Joy</t>
+  </si>
+  <si>
+    <t>It's Not What You Think: Why Christianity Is About So Much More Than Going to Heaven When You Die</t>
+  </si>
+  <si>
+    <t>The Lies We Believe: Renew Your Mind and Transform Your Life</t>
+  </si>
+  <si>
+    <t>Love Bears All Things (An Amish Secrets Novel)</t>
+  </si>
+  <si>
+    <t>A Love Made New (Amish of Birch Creek, Bk. 3)</t>
+  </si>
+  <si>
+    <t>Mary (Get to Know)</t>
+  </si>
+  <si>
+    <t>The Mindful Guide to Conflict Resolution</t>
+  </si>
+  <si>
+    <t>Mountains of Grace (Amish of Big Sky Country)</t>
+  </si>
+  <si>
+    <t>My Story - Joseph</t>
+  </si>
+  <si>
+    <t>Natural Killer: A Memoir</t>
+  </si>
+  <si>
+    <t>The New Girl</t>
+  </si>
+  <si>
+    <t>The New York Trilogy: City of Glass/Ghosts/The Locked Room</t>
+  </si>
+  <si>
+    <t>Oh She Glows Every Day: Quick and Simply Satisfying Plant-Based Recipes</t>
+  </si>
+  <si>
+    <t>Perfectly Unique: Praising God from Head to Foot</t>
+  </si>
+  <si>
+    <t>The Plans I Have For You Journal</t>
+  </si>
+  <si>
+    <t>The Rosie Effect</t>
+  </si>
+  <si>
+    <t>Same Kind of Different As Me</t>
+  </si>
+  <si>
+    <t>Summer by the Tides</t>
+  </si>
+  <si>
+    <t>Sweet Olive (Trumpet and Vine Novel)</t>
+  </si>
+  <si>
+    <t>Thanksgiving Blessings (Berenstain Bears, Living Lights)</t>
+  </si>
+  <si>
+    <t>Through My Father's Eyes</t>
+  </si>
+  <si>
+    <t>The Ultimate Cooking for One Cookbook: 175 Super Easy Recipes Made Just for You</t>
+  </si>
+  <si>
+    <t>Vegan Basics: Your Guide to the Essentials of a Plant-Based Diet - and How It Can Work for You!</t>
+  </si>
+  <si>
+    <t>What's Next? The Journey to Know God, Find Freedom, Discover Purpose, and Make a Difference</t>
+  </si>
+  <si>
+    <t>Wonders of Creation Coloring Book: Illustrations to Color and Inspire</t>
+  </si>
+  <si>
+    <t>101 DIY Baby Food Pouches</t>
+  </si>
+  <si>
+    <t>175 Best Air Fryer Recipes</t>
+  </si>
+  <si>
+    <t>50 Yale Admission Success Stories</t>
+  </si>
+  <si>
+    <t>Advent Conspiracy: Making Christmas Meaningful (Again)</t>
+  </si>
+  <si>
+    <t>After Me Comes the Flood</t>
+  </si>
+  <si>
+    <t>The Art of Racing in the Rain</t>
+  </si>
+  <si>
+    <t>At His Mercy</t>
+  </si>
+  <si>
+    <t>Attack on Pearl Harbor (Soldier Dogs, Bk. 2)</t>
+  </si>
+  <si>
+    <t>The Autobiography of Martin Luther King, Jr.</t>
+  </si>
+  <si>
+    <t>The Awakening of Sunshine Girl (The Haunting of Sunshine Girl Series, Bk. 2)</t>
+  </si>
+  <si>
+    <t>Be More Pirate: Or How to Take on the World and Win</t>
+  </si>
+  <si>
+    <t>Be the Change: The Future is in Your Hands</t>
+  </si>
+  <si>
+    <t>Because It Is My Blood (Birthright, Bk. 2)</t>
+  </si>
+  <si>
+    <t>Beer (Eyewitness Companion Guides)</t>
+  </si>
+  <si>
+    <t>Betsy And Tacy Go Over The Big Hill (Betsy-Tacy, Bk. 3)</t>
+  </si>
+  <si>
+    <t>The Biggest Loser Cookbook: More Than 125 Healthy, Delicious Recipes Adapted from NBC's Hit Show</t>
+  </si>
+  <si>
+    <t>Birmingham Friends (Birmingham Series, Bk. 2)</t>
+  </si>
+  <si>
+    <t>Bloody London: 20 Walks in London, Tracing its Gruesome and Horrific History</t>
+  </si>
+  <si>
+    <t>The Border</t>
+  </si>
+  <si>
+    <t>Buttercream Basics: Learn the Art of Buttercream Decorating</t>
+  </si>
+  <si>
+    <t>Calm Meditation Made Simple</t>
+  </si>
+  <si>
+    <t>Calm: The Magic of Sleep</t>
+  </si>
+  <si>
+    <t>Can't Make This Stuff Up! Finding the Upside to Life's Downs</t>
+  </si>
+  <si>
+    <t>Captain Paul Watson: Interview with a Pirate</t>
+  </si>
+  <si>
+    <t>The Cassandra</t>
+  </si>
+  <si>
+    <t>Celebrate Today: 365 Ways to Make Every Day a Holiday</t>
+  </si>
+  <si>
+    <t>Challenging Picture Puzzles: Over 75 Timed Puzzles to Test Your Skills</t>
+  </si>
+  <si>
+    <t>Champions of Women's Soccer</t>
+  </si>
+  <si>
+    <t>A Charlie Brown Valentine (Peanuts)</t>
+  </si>
+  <si>
+    <t>Co-creating Brands: Brand Management from a Co-Creative Perspective</t>
+  </si>
+  <si>
+    <t>Coding with Anna and Elsa: A Frozen Guide to Blockly (Disney Frozen - Disney Learning)</t>
+  </si>
+  <si>
+    <t>Cole and Sav: Our Surprising Love Story</t>
+  </si>
+  <si>
+    <t>Collusion (Mayberry and Garrett, Bk. 1)</t>
+  </si>
+  <si>
+    <t>Confessions of a Wannabe Cheerleader (Bk. 1)</t>
+  </si>
+  <si>
+    <t>The Confusion of Karen Carpenter</t>
+  </si>
+  <si>
+    <t>Creative Folk Art and Beyond: Inspiring Tips, Projects, and Ideas for Creating Cheerful Folk Art Inspired by the Scandinavian Concept of Hygge</t>
+  </si>
+  <si>
+    <t>Cuba (National Geographic Traveler, 4th Edition)</t>
+  </si>
+  <si>
+    <t>Daniel Plays in the Snow (Daniel Tiger's Neighborhood)</t>
+  </si>
+  <si>
+    <t>Deadly Animals (Wild Nature)</t>
+  </si>
+  <si>
+    <t>Dear Luke, We Need to Talk, Darth - And Other Pop Culture Correspondences</t>
+  </si>
+  <si>
+    <t>Disruptive Compassion: Becoming the Revolutionary You Were Born to Be</t>
+  </si>
+  <si>
+    <t>Divine Direction: 7 Decisions That Will Change Your Life</t>
+  </si>
+  <si>
+    <t>Drinking in America: Our Secret History</t>
+  </si>
+  <si>
+    <t>ECOrenaissance: A Lifestyle Guide for Cocreating a Stylish, Sexy, and Sustainable World</t>
+  </si>
+  <si>
+    <t>Eat More Dessert</t>
+  </si>
+  <si>
+    <t>Effortless Entertaining Cookbook: 80 Recipes That Will Impress Your Guests Without Stress</t>
+  </si>
+  <si>
+    <t>Emeril's Cooking with Power</t>
+  </si>
+  <si>
+    <t>The Enchanted Hour: The Miraculous Power of Reading Aloud in the Age of Distraction</t>
+  </si>
+  <si>
+    <t>Epic Air Fryer Cookbook</t>
+  </si>
+  <si>
+    <t>Everything in Its Path</t>
+  </si>
+  <si>
+    <t>Eyes On the Prize (The Fix-It Friends, Bk. 5)</t>
+  </si>
+  <si>
+    <t>False Bingo</t>
+  </si>
+  <si>
+    <t>Firebrand (Green Rider, Bk. 6)</t>
+  </si>
+  <si>
+    <t>The First Mistake</t>
+  </si>
+  <si>
+    <t>Food Cures: Tasty Remedies to Treat Common Conditions</t>
+  </si>
+  <si>
+    <t>Framed! (Bk. 1)</t>
+  </si>
+  <si>
+    <t>Frankenstein: A Monstrous Parody</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -53,13 +347,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,18 +665,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB9B8A1-01C7-BF4D-9543-ECAEBCDF9FF4}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B26" sqref="B2:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="118.83203125" collapsed="true"/>
+    <col min="3" max="4" width="10.83203125" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>